--- a/Excel/SoulBoneConfig.xlsx
+++ b/Excel/SoulBoneConfig.xlsx
@@ -38,7 +38,7 @@
     <t>AttrIdList</t>
   </si>
   <si>
-    <t>AttrValueist</t>
+    <t>AttrValueList</t>
   </si>
   <si>
     <t>ItemId</t>
@@ -65,7 +65,7 @@
     <t>14,15,16,18,19,20,24,2003</t>
   </si>
   <si>
-    <t>10,10,10,1,1,1,1,0.2</t>
+    <t>10,10,10,1,1,1,1,0.1</t>
   </si>
   <si>
     <t>智慧头骨</t>
@@ -740,9 +740,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1072,248 +1071,240 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.8166666666667" style="3" customWidth="1"/>
-    <col min="8" max="16366" width="9" style="3"/>
-    <col min="16367" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.8166666666667" style="2" customWidth="1"/>
+    <col min="8" max="16366" width="9" style="2"/>
+    <col min="16367" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C6" s="2">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>8101</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C7" s="2">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>8102</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C8" s="2">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1">
         <v>8103</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C9" s="2">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1">
         <v>8104</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C10" s="2">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1">
         <v>8105</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C11" s="2">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1">
         <v>8106</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C12" s="2">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C12" s="1">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1">
         <v>8107</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:7">
-      <c r="C13" s="2">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:7">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1">
         <v>8108</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:6">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+    <row r="14" customHeight="1" spans="5:6">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="3:6">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+    <row r="15" customHeight="1" spans="5:6">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customHeight="1" spans="3:6">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+    <row r="16" customHeight="1" spans="5:6">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" customHeight="1" spans="3:6">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+    <row r="17" customHeight="1" spans="5:6">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
@@ -1527,7 +1518,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F3 G3 F4 G4 F5 G5 E3:E5 C3:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G3 C4:E4 F4 G4 C5:G5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SoulBoneConfig.xlsx
+++ b/Excel/SoulBoneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>14,15,16,18,19,20,24,2003</t>
   </si>
   <si>
-    <t>10,10,10,1,1,1,1,0.1</t>
+    <t>10,10,10,1,1,0.5,0.5,0.1</t>
   </si>
   <si>
     <t>智慧头骨</t>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -1518,7 +1518,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G3 C4:E4 F4 G4 C5:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G3 C4:G4 C5:G5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SoulBoneConfig.xlsx
+++ b/Excel/SoulBoneConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t>八蛛魂骨</t>
   </si>
   <si>
-    <t>14,15,16,18,19,20,24,2003</t>
+    <t>14,15,16,18,20,19,24,2003</t>
   </si>
   <si>
     <t>10,10,10,1,1,0.5,0.5,0.1</t>
@@ -71,37 +71,22 @@
     <t>智慧头骨</t>
   </si>
   <si>
-    <t>14,15,16,18,19,20,24,2004</t>
-  </si>
-  <si>
     <t>蓝银皇骨</t>
   </si>
   <si>
-    <t>14,15,16,18,19,20,24,2002</t>
-  </si>
-  <si>
     <t>柔骨兔骨</t>
   </si>
   <si>
     <t>邪魔腿骨</t>
   </si>
   <si>
-    <t>14,15,16,18,19,20,24,2005</t>
-  </si>
-  <si>
     <t>泰坦巨猿骨</t>
   </si>
   <si>
     <t>天青牛蟒骨</t>
   </si>
   <si>
-    <t>14,15,16,18,19,20,24,2006</t>
-  </si>
-  <si>
     <t>魔鲸王骨</t>
-  </si>
-  <si>
-    <t>14,15,16,18,19,20,24,2001</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1056,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -1181,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -1195,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1212,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
@@ -1229,10 +1214,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
@@ -1246,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -1263,10 +1248,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
@@ -1280,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
@@ -1518,7 +1503,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G3 C4:G4 C5:G5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:G5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/SoulBoneConfig.xlsx
+++ b/Excel/SoulBoneConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -71,22 +71,37 @@
     <t>智慧头骨</t>
   </si>
   <si>
+    <t>14,15,16,18,20,19,24,2004</t>
+  </si>
+  <si>
     <t>蓝银皇骨</t>
   </si>
   <si>
+    <t>14,15,16,18,20,19,24,2002</t>
+  </si>
+  <si>
     <t>柔骨兔骨</t>
   </si>
   <si>
     <t>邪魔腿骨</t>
   </si>
   <si>
+    <t>14,15,16,18,20,19,24,2005</t>
+  </si>
+  <si>
     <t>泰坦巨猿骨</t>
   </si>
   <si>
     <t>天青牛蟒骨</t>
   </si>
   <si>
+    <t>14,15,16,18,20,19,24,2006</t>
+  </si>
+  <si>
     <t>魔鲸王骨</t>
+  </si>
+  <si>
+    <t>14,15,16,18,20,19,24,2001</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1071,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
@@ -1166,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -1180,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1197,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>11</v>
@@ -1214,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
@@ -1231,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>11</v>
@@ -1248,10 +1263,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
@@ -1265,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
